--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H2">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J2">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N2">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P2">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q2">
-        <v>148.3103323191306</v>
+        <v>484.1663395138511</v>
       </c>
       <c r="R2">
-        <v>148.3103323191306</v>
+        <v>4357.49705562466</v>
       </c>
       <c r="S2">
-        <v>0.001201088051885226</v>
+        <v>0.002932544248872369</v>
       </c>
       <c r="T2">
-        <v>0.001201088051885226</v>
+        <v>0.002932544248872369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H3">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J3">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N3">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P3">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q3">
-        <v>964.0269206956859</v>
+        <v>1712.788555077849</v>
       </c>
       <c r="R3">
-        <v>964.0269206956859</v>
+        <v>15415.09699570064</v>
       </c>
       <c r="S3">
-        <v>0.00780715138343695</v>
+        <v>0.01037417890671904</v>
       </c>
       <c r="T3">
-        <v>0.00780715138343695</v>
+        <v>0.01037417890671903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H4">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J4">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N4">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P4">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q4">
-        <v>274.7981081405775</v>
+        <v>669.8075446823564</v>
       </c>
       <c r="R4">
-        <v>274.7981081405775</v>
+        <v>6028.267902141208</v>
       </c>
       <c r="S4">
-        <v>0.002225446597059089</v>
+        <v>0.00405695337057477</v>
       </c>
       <c r="T4">
-        <v>0.002225446597059089</v>
+        <v>0.00405695337057477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H5">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J5">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N5">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P5">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q5">
-        <v>278.8154881002811</v>
+        <v>495.6596287987182</v>
       </c>
       <c r="R5">
-        <v>278.8154881002811</v>
+        <v>4460.936659188464</v>
       </c>
       <c r="S5">
-        <v>0.002257981262675644</v>
+        <v>0.003002157885018174</v>
       </c>
       <c r="T5">
-        <v>0.002257981262675644</v>
+        <v>0.003002157885018174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H6">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J6">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N6">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P6">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q6">
-        <v>270.2562013485502</v>
+        <v>502.697304374536</v>
       </c>
       <c r="R6">
-        <v>270.2562013485502</v>
+        <v>4524.275739370823</v>
       </c>
       <c r="S6">
-        <v>0.002188664062117815</v>
+        <v>0.003044784340744148</v>
       </c>
       <c r="T6">
-        <v>0.002188664062117815</v>
+        <v>0.003044784340744147</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.2521382393257</v>
+        <v>19.81532133333333</v>
       </c>
       <c r="H7">
-        <v>11.2521382393257</v>
+        <v>59.445964</v>
       </c>
       <c r="I7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="J7">
-        <v>0.01643556939832783</v>
+        <v>0.02448901563336021</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N7">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P7">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q7">
-        <v>93.2567805396581</v>
+        <v>178.0445327727671</v>
       </c>
       <c r="R7">
-        <v>93.2567805396581</v>
+        <v>1602.400794954904</v>
       </c>
       <c r="S7">
-        <v>0.0007552380411531032</v>
+        <v>0.001078396881431716</v>
       </c>
       <c r="T7">
-        <v>0.0007552380411531032</v>
+        <v>0.001078396881431716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H8">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J8">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N8">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P8">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q8">
-        <v>6827.270653795364</v>
+        <v>12957.30651103906</v>
       </c>
       <c r="R8">
-        <v>6827.270653795364</v>
+        <v>116615.7585993516</v>
       </c>
       <c r="S8">
-        <v>0.05529050526038438</v>
+        <v>0.07848103345634802</v>
       </c>
       <c r="T8">
-        <v>0.05529050526038438</v>
+        <v>0.07848103345634803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H9">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J9">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N9">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P9">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q9">
-        <v>44377.7085670072</v>
+        <v>45837.81334123186</v>
       </c>
       <c r="R9">
-        <v>44377.7085670072</v>
+        <v>412540.3200710868</v>
       </c>
       <c r="S9">
-        <v>0.3593919229793378</v>
+        <v>0.2776347815291879</v>
       </c>
       <c r="T9">
-        <v>0.3593919229793378</v>
+        <v>0.2776347815291879</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H10">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J10">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N10">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P10">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q10">
-        <v>12649.96868451254</v>
+        <v>17925.45443900587</v>
       </c>
       <c r="R10">
-        <v>12649.96868451254</v>
+        <v>161329.0899510528</v>
       </c>
       <c r="S10">
-        <v>0.1024455006344182</v>
+        <v>0.1085725793666548</v>
       </c>
       <c r="T10">
-        <v>0.1024455006344182</v>
+        <v>0.1085725793666548</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H11">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J11">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N11">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P11">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q11">
-        <v>12834.90347546838</v>
+        <v>13264.89103298992</v>
       </c>
       <c r="R11">
-        <v>12834.90347546838</v>
+        <v>119384.0192969093</v>
       </c>
       <c r="S11">
-        <v>0.1039431910806711</v>
+        <v>0.08034404033492376</v>
       </c>
       <c r="T11">
-        <v>0.1039431910806711</v>
+        <v>0.08034404033492377</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H12">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J12">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N12">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P12">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q12">
-        <v>12440.88799223307</v>
+        <v>13453.23398895147</v>
       </c>
       <c r="R12">
-        <v>12440.88799223307</v>
+        <v>121079.1059005633</v>
       </c>
       <c r="S12">
-        <v>0.1007522651231094</v>
+        <v>0.08148481367508463</v>
       </c>
       <c r="T12">
-        <v>0.1007522651231094</v>
+        <v>0.08148481367508463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>517.977351898144</v>
+        <v>530.2995503333333</v>
       </c>
       <c r="H13">
-        <v>517.977351898144</v>
+        <v>1590.898651</v>
       </c>
       <c r="I13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="J13">
-        <v>0.7565897727891929</v>
+        <v>0.6553774102381563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N13">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P13">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q13">
-        <v>4292.952966188692</v>
+        <v>4764.845044923832</v>
       </c>
       <c r="R13">
-        <v>4292.952966188692</v>
+        <v>42883.60540431448</v>
       </c>
       <c r="S13">
-        <v>0.03476638771127193</v>
+        <v>0.02886016187595718</v>
       </c>
       <c r="T13">
-        <v>0.03476638771127193</v>
+        <v>0.02886016187595718</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H14">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J14">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N14">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P14">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q14">
-        <v>459.2990439623306</v>
+        <v>2789.260253896845</v>
       </c>
       <c r="R14">
-        <v>459.2990439623306</v>
+        <v>25103.34228507161</v>
       </c>
       <c r="S14">
-        <v>0.003719623476794703</v>
+        <v>0.01689425399623319</v>
       </c>
       <c r="T14">
-        <v>0.003719623476794703</v>
+        <v>0.01689425399623319</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H15">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J15">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N15">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P15">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q15">
-        <v>2985.474013211177</v>
+        <v>9867.296939322603</v>
       </c>
       <c r="R15">
-        <v>2985.474013211177</v>
+        <v>88805.67245390343</v>
       </c>
       <c r="S15">
-        <v>0.02417779739557123</v>
+        <v>0.05976517268916547</v>
       </c>
       <c r="T15">
-        <v>0.02417779739557123</v>
+        <v>0.05976517268916547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H16">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J16">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N16">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P16">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q16">
-        <v>851.0162871190865</v>
+        <v>3858.730790782873</v>
       </c>
       <c r="R16">
-        <v>851.0162871190865</v>
+        <v>34728.57711704586</v>
       </c>
       <c r="S16">
-        <v>0.006891937186271241</v>
+        <v>0.0233719237892896</v>
       </c>
       <c r="T16">
-        <v>0.006891937186271241</v>
+        <v>0.0233719237892896</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H17">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J17">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N17">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P17">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q17">
-        <v>863.4576237803441</v>
+        <v>2855.472570558527</v>
       </c>
       <c r="R17">
-        <v>863.4576237803441</v>
+        <v>25699.25313502674</v>
       </c>
       <c r="S17">
-        <v>0.006992693084930841</v>
+        <v>0.01729529498686814</v>
       </c>
       <c r="T17">
-        <v>0.006992693084930841</v>
+        <v>0.01729529498686814</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H18">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J18">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N18">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P18">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q18">
-        <v>836.9505547137721</v>
+        <v>2896.016299358756</v>
       </c>
       <c r="R18">
-        <v>836.9505547137721</v>
+        <v>26064.1466942288</v>
       </c>
       <c r="S18">
-        <v>0.0067780261534466</v>
+        <v>0.01754086405893609</v>
       </c>
       <c r="T18">
-        <v>0.0067780261534466</v>
+        <v>0.01754086405893609</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8465022971811</v>
+        <v>114.1551646666666</v>
       </c>
       <c r="H19">
-        <v>34.8465022971811</v>
+        <v>342.4654939999999</v>
       </c>
       <c r="I19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="J19">
-        <v>0.05089895756814228</v>
+        <v>0.1410801048907614</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N19">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P19">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q19">
-        <v>288.8048962947731</v>
+        <v>1025.706452838831</v>
       </c>
       <c r="R19">
-        <v>288.8048962947731</v>
+        <v>9231.358075549482</v>
       </c>
       <c r="S19">
-        <v>0.002338880271127674</v>
+        <v>0.006212595370268901</v>
       </c>
       <c r="T19">
-        <v>0.002338880271127674</v>
+        <v>0.006212595370268901</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H20">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J20">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N20">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P20">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q20">
-        <v>553.1380686520813</v>
+        <v>1034.289521850364</v>
       </c>
       <c r="R20">
-        <v>553.1380686520813</v>
+        <v>9308.60569665328</v>
       </c>
       <c r="S20">
-        <v>0.004479576809735107</v>
+        <v>0.006264582110389496</v>
       </c>
       <c r="T20">
-        <v>0.004479576809735107</v>
+        <v>0.006264582110389496</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H21">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J21">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N21">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P21">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q21">
-        <v>3595.433849442209</v>
+        <v>3658.906270603235</v>
       </c>
       <c r="R21">
-        <v>3595.433849442209</v>
+        <v>32930.15643542913</v>
       </c>
       <c r="S21">
-        <v>0.02911754407384403</v>
+        <v>0.02216160783047084</v>
       </c>
       <c r="T21">
-        <v>0.02911754407384403</v>
+        <v>0.02216160783047084</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H22">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J22">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N22">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P22">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q22">
-        <v>1024.886752185627</v>
+        <v>1430.861397380274</v>
       </c>
       <c r="R22">
-        <v>1024.886752185627</v>
+        <v>12877.75257642246</v>
       </c>
       <c r="S22">
-        <v>0.008300023426127989</v>
+        <v>0.008666575966504091</v>
       </c>
       <c r="T22">
-        <v>0.008300023426127989</v>
+        <v>0.008666575966504093</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H23">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J23">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N23">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P23">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q23">
-        <v>1039.869968507808</v>
+        <v>1058.841804214457</v>
       </c>
       <c r="R23">
-        <v>1039.869968507808</v>
+        <v>9529.576237930112</v>
       </c>
       <c r="S23">
-        <v>0.008421364682815751</v>
+        <v>0.006413292684767312</v>
       </c>
       <c r="T23">
-        <v>0.008421364682815751</v>
+        <v>0.006413292684767313</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H24">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J24">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N24">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P24">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q24">
-        <v>1007.947261108675</v>
+        <v>1073.875881373888</v>
       </c>
       <c r="R24">
-        <v>1007.947261108675</v>
+        <v>9664.882932364992</v>
       </c>
       <c r="S24">
-        <v>0.008162839320210379</v>
+        <v>0.006504352498126626</v>
       </c>
       <c r="T24">
-        <v>0.008162839320210379</v>
+        <v>0.006504352498126626</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.9659636424671</v>
+        <v>42.33003733333333</v>
       </c>
       <c r="H25">
-        <v>41.9659636424671</v>
+        <v>126.990112</v>
       </c>
       <c r="I25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="J25">
-        <v>0.06129808336364732</v>
+        <v>0.05231411232645103</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N25">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P25">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q25">
-        <v>347.8103964154065</v>
+        <v>380.3436539072924</v>
       </c>
       <c r="R25">
-        <v>347.8103964154065</v>
+        <v>3423.092885165632</v>
       </c>
       <c r="S25">
-        <v>0.002816735050914068</v>
+        <v>0.002303701236192658</v>
       </c>
       <c r="T25">
-        <v>0.002816735050914068</v>
+        <v>0.002303701236192658</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H26">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J26">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N26">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P26">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q26">
-        <v>512.6592515967236</v>
+        <v>1129.351835820956</v>
       </c>
       <c r="R26">
-        <v>512.6592515967236</v>
+        <v>10164.16652238861</v>
       </c>
       <c r="S26">
-        <v>0.004151759976211859</v>
+        <v>0.006840364479727426</v>
       </c>
       <c r="T26">
-        <v>0.004151759976211859</v>
+        <v>0.006840364479727427</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H27">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J27">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N27">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P27">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q27">
-        <v>3332.31887458454</v>
+        <v>3995.199048724769</v>
       </c>
       <c r="R27">
-        <v>3332.31887458454</v>
+        <v>35956.79143852292</v>
       </c>
       <c r="S27">
-        <v>0.0269867130816134</v>
+        <v>0.02419849757668461</v>
       </c>
       <c r="T27">
-        <v>0.0269867130816134</v>
+        <v>0.02419849757668461</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H28">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J28">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N28">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P28">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q28">
-        <v>949.8852187614721</v>
+        <v>1562.37292537373</v>
       </c>
       <c r="R28">
-        <v>949.8852187614721</v>
+        <v>14061.35632836357</v>
       </c>
       <c r="S28">
-        <v>0.007692625113008551</v>
+        <v>0.009463127365481707</v>
       </c>
       <c r="T28">
-        <v>0.007692625113008551</v>
+        <v>0.009463127365481709</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H29">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J29">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N29">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P29">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q29">
-        <v>963.7719586218456</v>
+        <v>1156.16073659361</v>
       </c>
       <c r="R29">
-        <v>963.7719586218456</v>
+        <v>10405.44662934249</v>
       </c>
       <c r="S29">
-        <v>0.007805086578539106</v>
+        <v>0.007002743152847035</v>
       </c>
       <c r="T29">
-        <v>0.007805086578539106</v>
+        <v>0.007002743152847035</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H30">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J30">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N30">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P30">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q30">
-        <v>934.1853649454042</v>
+        <v>1172.576606890258</v>
       </c>
       <c r="R30">
-        <v>934.1853649454042</v>
+        <v>10553.18946201232</v>
       </c>
       <c r="S30">
-        <v>0.007565480182915293</v>
+        <v>0.007102172340917</v>
       </c>
       <c r="T30">
-        <v>0.007565480182915293</v>
+        <v>0.007102172340917</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>38.8948812832746</v>
+        <v>46.22062233333333</v>
       </c>
       <c r="H31">
-        <v>38.8948812832746</v>
+        <v>138.661867</v>
       </c>
       <c r="I31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="J31">
-        <v>0.05681227043023694</v>
+        <v>0.05712234103418551</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N31">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P31">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q31">
-        <v>322.357522703859</v>
+        <v>415.3013200932291</v>
       </c>
       <c r="R31">
-        <v>322.357522703859</v>
+        <v>3737.711880839062</v>
       </c>
       <c r="S31">
-        <v>0.002610605497948729</v>
+        <v>0.002515436118527732</v>
       </c>
       <c r="T31">
-        <v>0.002610605497948729</v>
+        <v>0.002515436118527732</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H32">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J32">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.1806354636484</v>
+        <v>24.43393833333333</v>
       </c>
       <c r="N32">
-        <v>13.1806354636484</v>
+        <v>73.301815</v>
       </c>
       <c r="O32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="P32">
-        <v>0.07307857870792268</v>
+        <v>0.1197493722400791</v>
       </c>
       <c r="Q32">
-        <v>523.0643117198505</v>
+        <v>1376.38099667713</v>
       </c>
       <c r="R32">
-        <v>523.0643117198505</v>
+        <v>12387.42897009417</v>
       </c>
       <c r="S32">
-        <v>0.004236025132911418</v>
+        <v>0.00833659394850861</v>
       </c>
       <c r="T32">
-        <v>0.004236025132911418</v>
+        <v>0.008336593948508613</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H33">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J33">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>85.6749979596284</v>
+        <v>86.43758666666668</v>
       </c>
       <c r="N33">
-        <v>85.6749979596284</v>
+        <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="P33">
-        <v>0.4750155710596348</v>
+        <v>0.4236258027695808</v>
       </c>
       <c r="Q33">
-        <v>3399.952450164208</v>
+        <v>4869.09028186952</v>
       </c>
       <c r="R33">
-        <v>3399.952450164208</v>
+        <v>43821.81253682569</v>
       </c>
       <c r="S33">
-        <v>0.02753444214583138</v>
+        <v>0.029491564237353</v>
       </c>
       <c r="T33">
-        <v>0.02753444214583138</v>
+        <v>0.02949156423735301</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H34">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J34">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>24.4218567436517</v>
+        <v>33.80250733333333</v>
       </c>
       <c r="N34">
-        <v>24.4218567436517</v>
+        <v>101.407522</v>
       </c>
       <c r="O34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="P34">
-        <v>0.135404289509161</v>
+        <v>0.1656642076314483</v>
       </c>
       <c r="Q34">
-        <v>969.164326239781</v>
+        <v>1904.119102656844</v>
       </c>
       <c r="R34">
-        <v>969.164326239781</v>
+        <v>17137.0719239116</v>
       </c>
       <c r="S34">
-        <v>0.007848756552275923</v>
+        <v>0.01153304777294333</v>
       </c>
       <c r="T34">
-        <v>0.007848756552275923</v>
+        <v>0.01153304777294333</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H35">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J35">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.7788893248604</v>
+        <v>25.01395866666667</v>
       </c>
       <c r="N35">
-        <v>24.7788893248604</v>
+        <v>75.041876</v>
       </c>
       <c r="O35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="P35">
-        <v>0.1373838172534122</v>
+        <v>0.1225920196207674</v>
       </c>
       <c r="Q35">
-        <v>983.3329148383006</v>
+        <v>1409.053951548152</v>
       </c>
       <c r="R35">
-        <v>983.3329148383006</v>
+        <v>12681.48556393337</v>
       </c>
       <c r="S35">
-        <v>0.007963500563779726</v>
+        <v>0.008534490576342939</v>
       </c>
       <c r="T35">
-        <v>0.007963500563779726</v>
+        <v>0.008534490576342943</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H36">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J36">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.0182084151808</v>
+        <v>25.369122</v>
       </c>
       <c r="N36">
-        <v>24.0182084151808</v>
+        <v>76.107366</v>
       </c>
       <c r="O36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="P36">
-        <v>0.1331663058987474</v>
+        <v>0.1243326553557499</v>
       </c>
       <c r="Q36">
-        <v>953.1458242721941</v>
+        <v>1429.060552860132</v>
       </c>
       <c r="R36">
-        <v>953.1458242721941</v>
+        <v>12861.54497574119</v>
       </c>
       <c r="S36">
-        <v>0.007719031056947862</v>
+        <v>0.008655668441941444</v>
       </c>
       <c r="T36">
-        <v>0.007719031056947862</v>
+        <v>0.008655668441941445</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>39.684301501429</v>
+        <v>56.330706</v>
       </c>
       <c r="H37">
-        <v>39.684301501429</v>
+        <v>168.992118</v>
       </c>
       <c r="I37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708551</v>
       </c>
       <c r="J37">
-        <v>0.05796534645045275</v>
+        <v>0.06961701587708552</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.287916354753801</v>
+        <v>8.985195333333333</v>
       </c>
       <c r="N37">
-        <v>8.287916354753801</v>
+        <v>26.955586</v>
       </c>
       <c r="O37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="P37">
-        <v>0.04595143757112193</v>
+        <v>0.04403594238237437</v>
       </c>
       <c r="Q37">
-        <v>328.9001714406742</v>
+        <v>506.142396674572</v>
       </c>
       <c r="R37">
-        <v>328.9001714406742</v>
+        <v>4555.281570071148</v>
       </c>
       <c r="S37">
-        <v>0.002663590998706433</v>
+        <v>0.003065650899996179</v>
       </c>
       <c r="T37">
-        <v>0.002663590998706433</v>
+        <v>0.00306565089999618</v>
       </c>
     </row>
   </sheetData>
